--- a/src/test/java/excelFiles/releaseNotes.xlsx
+++ b/src/test/java/excelFiles/releaseNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CucumberProject\src\test\java\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE90C1D-4B68-4602-BA6E-A7F286B3B813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953C9D9A-748F-4B80-A21C-6F0EC3B0211A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26475" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,8 +347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/excelFiles/releaseNotes.xlsx
+++ b/src/test/java/excelFiles/releaseNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CucumberProject\src\test\java\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953C9D9A-748F-4B80-A21C-6F0EC3B0211A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8BFBC7-147D-4E56-8A76-366CCC137753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>MyFirstExcel</t>
+    <t>asdsadas</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>School settings - Ability to configure parameters of Countries, Cities, Citizenship...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,8 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,20 +365,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/java/excelFiles/releaseNotes.xlsx
+++ b/src/test/java/excelFiles/releaseNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CucumberProject\src\test\java\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8BFBC7-147D-4E56-8A76-366CCC137753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0E5C24-B5E9-4E97-836D-3CFFEDBE90A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/excelFiles/releaseNotes.xlsx
+++ b/src/test/java/excelFiles/releaseNotes.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CucumberProject\src\test\java\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0E5C24-B5E9-4E97-836D-3CFFEDBE90A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960F5EE2-348B-4558-B305-B7993441E0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ReleaseNotes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/excelFiles/releaseNotes.xlsx
+++ b/src/test/java/excelFiles/releaseNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CucumberProject\src\test\java\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960F5EE2-348B-4558-B305-B7993441E0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4445FAFA-0C0B-4BD0-AE62-9BB9090C76D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>asdsadas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>SYSTEM</t>
   </si>
   <si>
     <t>School settings - Ability to configure parameters of Countries, Cities, Citizenship...</t>
+  </si>
+  <si>
+    <t>Sms and E-mail Notifications - Sms and E-mail Notifications for students and their parents</t>
+  </si>
+  <si>
+    <t>STUDENT</t>
+  </si>
+  <si>
+    <t>Student Info - Ability to store information about students, their parents, their documents, etc.</t>
+  </si>
+  <si>
+    <t>Student Fees and Payments - Ability to track student fees and payments</t>
   </si>
 </sst>
 </file>
@@ -365,25 +374,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/excelFiles/releaseNotes.xlsx
+++ b/src/test/java/excelFiles/releaseNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CucumberProject\src\test\java\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4445FAFA-0C0B-4BD0-AE62-9BB9090C76D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D0D4D7-2F1F-487B-8FB8-1BA484C051D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +387,7 @@
     <col min="3" max="3" width="90.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
